--- a/Sesion4/Apuntes-Herencia-Poli.xlsx
+++ b/Sesion4/Apuntes-Herencia-Poli.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\Box Sync\POOClases\2020-2-1-E23A\Sesion4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A994D1DA-8F96-4E39-9F90-4E6B93D74B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90BB4D02-8CAE-4AF7-81D7-92C9EBA3F909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{51F21639-A3B1-41C7-B791-11155D938124}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{51F21639-A3B1-41C7-B791-11155D938124}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>Profesor</t>
   </si>
@@ -114,13 +115,75 @@
   </si>
   <si>
     <t>calcularArea()</t>
+  </si>
+  <si>
+    <t>porAfp</t>
+  </si>
+  <si>
+    <t>tarifaHora</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>ProfesorTParcial</t>
+  </si>
+  <si>
+    <t>ProfesorTCompleto</t>
+  </si>
+  <si>
+    <t>calcularSuledoNeto()</t>
+  </si>
+  <si>
+    <t>calcularSuledoNeto</t>
+  </si>
+  <si>
+    <t>SE DA CUANDO HAY HERENCIA A NIVEL DE METODOS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POLIMORFISMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: CASO ESPECIAL DE LA HERENCIA</t>
+    </r>
+  </si>
+  <si>
+    <t>SUPERCLASE</t>
+  </si>
+  <si>
+    <t>SUBCLASE</t>
+  </si>
+  <si>
+    <t>HERENCIA: PROPIEDADES Y/O METODOS</t>
+  </si>
+  <si>
+    <t>calcularArea</t>
+  </si>
+  <si>
+    <t>obtenerBeneficios()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +219,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -225,11 +313,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -246,6 +431,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,13 +475,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>16504</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>170345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>670228</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>86525</xdr:rowOff>
@@ -330,13 +538,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1295354</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>77095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>449221</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>176155</xdr:rowOff>
@@ -551,6 +759,251 @@
             <a:gd name="adj1" fmla="val 31967"/>
             <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1087632</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>59512</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha: hacia arriba 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FC655C-9461-435E-AFD4-F396085FC458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3289421">
+          <a:off x="10719602" y="796254"/>
+          <a:ext cx="312420" cy="777820"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1293373</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657683</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flecha: hacia arriba 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B511CBA-0218-4E68-A011-E8FD56B392C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18111005">
+          <a:off x="12733188" y="752439"/>
+          <a:ext cx="308610" cy="777820"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50110</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flecha: hacia arriba 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7949EF4-1F9C-4C9A-8CED-3DFE97C62414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3289421">
+          <a:off x="1611920" y="2079971"/>
+          <a:ext cx="312420" cy="777820"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flecha: hacia arriba 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EF78D3-DB3E-4956-895E-BFE48CBA8DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18111005">
+          <a:off x="3170210" y="2133311"/>
+          <a:ext cx="312420" cy="777820"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -880,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CA432-50AA-419F-ABBB-E41955D1FF90}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -891,13 +1344,13 @@
     <col min="2" max="2" width="18.3671875" customWidth="1"/>
     <col min="3" max="3" width="13.15625" customWidth="1"/>
     <col min="5" max="5" width="16.62890625" customWidth="1"/>
-    <col min="7" max="7" width="19.578125" customWidth="1"/>
-    <col min="9" max="9" width="15.89453125" customWidth="1"/>
-    <col min="11" max="11" width="18.1015625" customWidth="1"/>
-    <col min="12" max="12" width="17.3125" customWidth="1"/>
+    <col min="7" max="12" width="19.578125" customWidth="1"/>
+    <col min="14" max="14" width="15.89453125" customWidth="1"/>
+    <col min="16" max="16" width="18.1015625" customWidth="1"/>
+    <col min="17" max="17" width="17.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,14 +1360,19 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="P2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -924,11 +1382,16 @@
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="P3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -938,11 +1401,16 @@
       <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="P4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -952,11 +1420,16 @@
       <c r="G5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="P5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -966,17 +1439,22 @@
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1464,13 @@
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
@@ -995,8 +1478,13 @@
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -1004,69 +1492,84 @@
       <c r="G9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M9" t="s">
+      <c r="R9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4"/>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="N10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="N11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="N13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="Q13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="I16" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1106,6 +1609,223 @@
       </c>
       <c r="F20" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C7951-3904-4892-91E4-D0111EA489E6}">
+  <dimension ref="B1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="18.15625" customWidth="1"/>
+    <col min="5" max="5" width="20.15625" customWidth="1"/>
+    <col min="8" max="8" width="20.83984375" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="17.83984375" customWidth="1"/>
+    <col min="12" max="12" width="7.1015625" customWidth="1"/>
+    <col min="13" max="13" width="19.5234375" customWidth="1"/>
+    <col min="14" max="14" width="18.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="37"/>
+      <c r="K12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
